--- a/dashboard_loader/education_participation_uploader/education_participation.xlsx
+++ b/dashboard_loader/education_participation_uploader/education_participation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -89,19 +89,16 @@
     <t xml:space="preserve">Updated</t>
   </si>
   <si>
-    <t xml:space="preserve">2011 Census</t>
-  </si>
-  <si>
     <t xml:space="preserve">Desc Body</t>
   </si>
   <si>
-    <t xml:space="preserve">Nationally, the proportion of young people fully engaged in work or study fell between 2006 and 2011 Censuses. In 2011, more than a quarter of young people were not fully engaged. The proportion in full-time study rose, but there were falls in full-time work.  More recent data from the ABS Survey of Education and Work would suggest that the proportion of young people fully engaged in work or study fell between 2012 and 2016.</t>
+    <t xml:space="preserve">Nationally, the proportion of young people fully engaged in work or study fell between 2006 and 2016 Censuses. In 2016, around a quarter of young people were not fully engaged. The proportion in full-time study rose, but there were falls in full-time work.  </t>
   </si>
   <si>
     <t xml:space="preserve">Influences</t>
   </si>
   <si>
-    <t xml:space="preserve">There is a positive relationship between a person’s highest level of schooling and subsequent engagement. The state of the job market and the economy also play a major role. There have been changes to the definition of participation since 2012 and they will affect this indicator in the next Census year.</t>
+    <t xml:space="preserve">There is a positive relationship between a person’s highest level of schooling and subsequent engagement. The state of the job market and the economy also play a major role. </t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
@@ -110,16 +107,13 @@
     <t xml:space="preserve">People who were in school level education are excluded. </t>
   </si>
   <si>
-    <t xml:space="preserve">Prior to 2009, the SEW was not conducted in very remote areas. Since 2009, very remote areas have been sampled, however, Indigenous communities in very remote areas are excluded, which affects the comparability of Northern Territory results.</t>
-  </si>
-  <si>
     <t xml:space="preserve">People permanently unable to work are excluded from the in-scope population.  </t>
   </si>
   <si>
     <t xml:space="preserve">Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ABS unpublished, 2006 Census of Population and Housing and 2011 Census of Population and Housing.</t>
+    <t xml:space="preserve">ABS (unpublished) 2006, 2011 and 2016 Census of Population and Housing.</t>
   </si>
 </sst>
 </file>
@@ -131,7 +125,7 @@
     <numFmt numFmtId="165" formatCode="########\ ###\ ##0.0;\-########\ ###\ ##0.0;\–"/>
     <numFmt numFmtId="166" formatCode="#########\ ###\ ##0.0;\-#########\ ###\ ##0.0;\–"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -155,87 +149,6 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -247,78 +160,29 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <strike val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -329,7 +193,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -353,194 +217,82 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="36" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="36" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -549,20 +301,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="43.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="43.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="8.55"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -597,7 +349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>2006</v>
       </c>
@@ -632,7 +384,7 @@
         <v>28.5840970934207</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <v>2006</v>
       </c>
@@ -667,7 +419,7 @@
         <v>41.2187585198729</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>2006</v>
       </c>
@@ -702,7 +454,7 @@
         <v>3.44893213700452</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <v>2006</v>
       </c>
@@ -737,7 +489,7 @@
         <v>26.1353360106532</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>2011</v>
       </c>
@@ -772,7 +524,7 @@
         <v>31.9986905554156</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>2011</v>
       </c>
@@ -807,7 +559,7 @@
         <v>36.2656384942249</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>2011</v>
       </c>
@@ -842,7 +594,7 @@
         <v>3.90033576054394</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>2011</v>
       </c>
@@ -877,14 +629,146 @@
         <v>27.2854976858582</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.32751816114979</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.58533104925637</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.78103513077314</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>3.58546881803209</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>3.86334457621586</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>2.86601438591788</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>6.12129950885414</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>3.21581354182033</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>3.91930102547508</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J13" s="7" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K13" s="7" t="n">
+        <v>27.1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -901,93 +785,90 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="9.11"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="53.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="40.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="11" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9"/>
+      <c r="B8" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8"/>
-      <c r="B8" s="11" t="s">
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8"/>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_loader/education_participation_uploader/education_participation.xlsx
+++ b/dashboard_loader/education_participation_uploader/education_participation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t xml:space="preserve">People who were in school level education are excluded. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">People who were engaged in a combination of education or training and employment, but whose full­time/part-time student status or their full­time/part-time employment status was not identified are included in 'Combination of study and work proportion' and 'Total fully engaged'.</t>
   </si>
   <si>
     <t xml:space="preserve">People permanently unable to work are excluded from the in-scope population.  </t>
@@ -125,7 +128,7 @@
     <numFmt numFmtId="165" formatCode="########\ ###\ ##0.0;\-########\ ###\ ##0.0;\–"/>
     <numFmt numFmtId="166" formatCode="#########\ ###\ ##0.0;\-#########\ ###\ ##0.0;\–"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -150,6 +153,20 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -222,7 +239,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -251,15 +268,23 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -267,11 +292,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -280,6 +305,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -303,8 +332,8 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -419,39 +448,39 @@
         <v>41.2187585198729</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>2006</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="n">
-        <v>3.80783595535934</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>3.26342427124368</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>3.23995120933993</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>3.10078381851458</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>3.32591483983033</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>2.49637376899</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>5.97562039973235</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>2.62091018100839</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>3.44893213700452</v>
+      <c r="C4" s="7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" s="7" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,214 +588,214 @@
         <v>36.2656384942249</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5" t="n">
-        <v>4.3042115113822</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>3.86078862247114</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>3.52181785867911</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>3.48932616727598</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>3.58515671200473</v>
-      </c>
-      <c r="H8" s="5" t="n">
-        <v>2.98867552929591</v>
-      </c>
-      <c r="I8" s="5" t="n">
-        <v>7.13069844140646</v>
-      </c>
-      <c r="J8" s="5" t="n">
-        <v>2.77560390254083</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>3.90033576054394</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K8" s="7" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>26.7344705254123</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>24.2578439824808</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>30.9303337909576</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>25.9386030072195</v>
-      </c>
-      <c r="G9" s="7" t="n">
-        <v>30.5211413364873</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>33.3653372722797</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>16.737592425129</v>
-      </c>
-      <c r="J9" s="7" t="n">
-        <v>42.2810038086294</v>
-      </c>
-      <c r="K9" s="7" t="n">
-        <v>27.2854976858582</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+      <c r="C9" s="8" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="J9" s="8" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="F10" s="6" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="J10" s="6" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K10" s="6" t="n">
+      <c r="C10" s="9" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="D10" s="9" t="n">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+      <c r="E10" s="9" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="E11" s="5" t="n">
+      <c r="C11" s="7" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="I11" s="7" t="n">
         <v>29.2</v>
       </c>
-      <c r="F11" s="5" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="I11" s="5" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>25.7</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+      <c r="J11" s="7" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5" t="n">
-        <v>4.32751816114979</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>3.58533104925637</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>3.78103513077314</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>3.58546881803209</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>3.86334457621586</v>
-      </c>
-      <c r="H12" s="5" t="n">
-        <v>2.86601438591788</v>
-      </c>
-      <c r="I12" s="5" t="n">
-        <v>6.12129950885414</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>3.21581354182033</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>3.91930102547508</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+      <c r="C12" s="7" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K12" s="7" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="7" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="E13" s="7" t="n">
-        <v>32</v>
-      </c>
-      <c r="F13" s="7" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="G13" s="7" t="n">
+      <c r="C13" s="10" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D13" s="10" t="n">
+        <v>26</v>
+      </c>
+      <c r="E13" s="10" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="G13" s="10" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="H13" s="10" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="I13" s="10" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J13" s="10" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="K13" s="10" t="n">
         <v>29.3</v>
-      </c>
-      <c r="H13" s="7" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="I13" s="7" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="J13" s="7" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K13" s="7" t="n">
-        <v>27.1</v>
       </c>
     </row>
   </sheetData>
@@ -785,10 +814,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -799,23 +828,23 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -823,7 +852,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="1" t="n">
@@ -831,44 +860,50 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="53.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="40.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="13" t="s">
+    <row r="8" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11"/>
+      <c r="B8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11"/>
+      <c r="B9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
